--- a/Divisions/F2.xlsx
+++ b/Divisions/F2.xlsx
@@ -12,12 +12,13 @@
     <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
     <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
     <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
+    <sheet name="L6" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6546" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6650" uniqueCount="292">
   <si>
     <t>Team</t>
   </si>
@@ -641,6 +642,258 @@
   </si>
   <si>
     <t>2.6</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Goals scored</t>
+  </si>
+  <si>
+    <t>Goals conceded</t>
+  </si>
+  <si>
+    <t>Total Goals</t>
+  </si>
+  <si>
+    <t>Ajaccio,W D W L D D</t>
+  </si>
+  <si>
+    <t>Amiens,L L W D D L</t>
+  </si>
+  <si>
+    <t>Auxerre,D W W L W D</t>
+  </si>
+  <si>
+    <t>Caen,D L L D L D</t>
+  </si>
+  <si>
+    <t>Chambly,D L W L D W</t>
+  </si>
+  <si>
+    <t>Chateauroux,D L L D L L</t>
+  </si>
+  <si>
+    <t>Clermont,L W D W W W</t>
+  </si>
+  <si>
+    <t>Dunkerque,W D D L D W</t>
+  </si>
+  <si>
+    <t>Grenoble,D W D W L L</t>
+  </si>
+  <si>
+    <t>Guingamp,L D W W D W</t>
+  </si>
+  <si>
+    <t>Le Havre,L D D D D L</t>
+  </si>
+  <si>
+    <t>Nancy,L D L W D L</t>
+  </si>
+  <si>
+    <t>Niort,D L L L D D</t>
+  </si>
+  <si>
+    <t>Paris FC,W D D L D W</t>
+  </si>
+  <si>
+    <t>Pau FC,W D W D W D</t>
+  </si>
+  <si>
+    <t>Rodez,D L D D D D</t>
+  </si>
+  <si>
+    <t>Sochaux,L D D L W L</t>
+  </si>
+  <si>
+    <t>Toulouse,W L W D W L</t>
+  </si>
+  <si>
+    <t>Troyes,W D W W W W</t>
+  </si>
+  <si>
+    <t>Valenciennes,L W L L D W</t>
+  </si>
+  <si>
+    <t>Ajaccio,3 1 3 0 2 0</t>
+  </si>
+  <si>
+    <t>Amiens,0 0 3 2 1 0</t>
+  </si>
+  <si>
+    <t>Auxerre,1 4 3 0 2 0</t>
+  </si>
+  <si>
+    <t>Caen,1 1 0 1 0 0</t>
+  </si>
+  <si>
+    <t>Chambly,2 1 2 0 1 4</t>
+  </si>
+  <si>
+    <t>Chateauroux,2 1 0 1 1 1</t>
+  </si>
+  <si>
+    <t>Clermont,1 3 1 1 2 2</t>
+  </si>
+  <si>
+    <t>Dunkerque,2 1 1 1 1 1</t>
+  </si>
+  <si>
+    <t>Grenoble,2 3 1 2 1 1</t>
+  </si>
+  <si>
+    <t>Guingamp,0 1 1 1 0 3</t>
+  </si>
+  <si>
+    <t>Le Havre,0 1 1 1 1 2</t>
+  </si>
+  <si>
+    <t>Nancy,1 0 2 2 1 1</t>
+  </si>
+  <si>
+    <t>Niort,0 0 0 0 1 1</t>
+  </si>
+  <si>
+    <t>Paris FC,2 1 2 0 0 3</t>
+  </si>
+  <si>
+    <t>Pau FC,3 1 2 1 3 0</t>
+  </si>
+  <si>
+    <t>Rodez,2 0 2 1 1 1</t>
+  </si>
+  <si>
+    <t>Sochaux,1 0 1 0 1 0</t>
+  </si>
+  <si>
+    <t>Toulouse,4 0 4 1 1 1</t>
+  </si>
+  <si>
+    <t>Troyes,1 1 1 3 3 2</t>
+  </si>
+  <si>
+    <t>Valenciennes,0 2 0 1 1 3</t>
+  </si>
+  <si>
+    <t>Ajaccio,0 1 0 2 2 0</t>
+  </si>
+  <si>
+    <t>Amiens,3 2 1 2 1 3</t>
+  </si>
+  <si>
+    <t>Auxerre,1 0 2 3 1 0</t>
+  </si>
+  <si>
+    <t>Caen,1 3 1 1 1 0</t>
+  </si>
+  <si>
+    <t>Chambly,2 2 0 1 1 2</t>
+  </si>
+  <si>
+    <t>Chateauroux,2 2 1 1 2 2</t>
+  </si>
+  <si>
+    <t>Clermont,2 0 1 0 1 1</t>
+  </si>
+  <si>
+    <t>Dunkerque,1 1 1 2 1 0</t>
+  </si>
+  <si>
+    <t>Grenoble,2 1 1 0 3 2</t>
+  </si>
+  <si>
+    <t>Guingamp,1 1 0 0 0 0</t>
+  </si>
+  <si>
+    <t>Le Havre,2 1 1 1 1 4</t>
+  </si>
+  <si>
+    <t>Nancy,4 0 3 0 1 3</t>
+  </si>
+  <si>
+    <t>Niort,0 4 3 3 1 1</t>
+  </si>
+  <si>
+    <t>Paris FC,1 1 2 1 0 1</t>
+  </si>
+  <si>
+    <t>Pau FC,1 1 1 1 0 0</t>
+  </si>
+  <si>
+    <t>Rodez,2 1 2 1 1 1</t>
+  </si>
+  <si>
+    <t>Sochaux,2 0 1 2 0 1</t>
+  </si>
+  <si>
+    <t>Toulouse,0 1 1 1 0 3</t>
+  </si>
+  <si>
+    <t>Troyes,0 1 0 0 1 1</t>
+  </si>
+  <si>
+    <t>Valenciennes,3 1 1 3 1 1</t>
+  </si>
+  <si>
+    <t>Ajaccio,3 2 3 2 4 0</t>
+  </si>
+  <si>
+    <t>Amiens,3 2 4 4 2 3</t>
+  </si>
+  <si>
+    <t>Auxerre,2 4 5 3 3 0</t>
+  </si>
+  <si>
+    <t>Caen,2 4 1 2 1 0</t>
+  </si>
+  <si>
+    <t>Chambly,4 3 2 1 2 6</t>
+  </si>
+  <si>
+    <t>Chateauroux,4 3 1 2 3 3</t>
+  </si>
+  <si>
+    <t>Clermont,3 3 2 1 3 3</t>
+  </si>
+  <si>
+    <t>Dunkerque,3 2 2 3 2 1</t>
+  </si>
+  <si>
+    <t>Grenoble,4 4 2 2 4 3</t>
+  </si>
+  <si>
+    <t>Guingamp,1 2 1 1 0 3</t>
+  </si>
+  <si>
+    <t>Le Havre,2 2 2 2 2 6</t>
+  </si>
+  <si>
+    <t>Nancy,5 0 5 2 2 4</t>
+  </si>
+  <si>
+    <t>Niort,0 4 3 3 2 2</t>
+  </si>
+  <si>
+    <t>Paris FC,3 2 4 1 0 4</t>
+  </si>
+  <si>
+    <t>Pau FC,4 2 3 2 3 0</t>
+  </si>
+  <si>
+    <t>Rodez,4 1 4 2 2 2</t>
+  </si>
+  <si>
+    <t>Sochaux,3 0 2 2 1 1</t>
+  </si>
+  <si>
+    <t>Toulouse,4 1 5 2 1 4</t>
+  </si>
+  <si>
+    <t>Troyes,1 2 1 3 4 3</t>
+  </si>
+  <si>
+    <t>Valenciennes,3 3 1 4 2 4</t>
   </si>
 </sst>
 </file>
@@ -20655,4 +20908,372 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" t="s">
+        <v>264</v>
+      </c>
+      <c r="E14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" t="s">
+        <v>265</v>
+      </c>
+      <c r="E15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" t="s">
+        <v>246</v>
+      </c>
+      <c r="D16" t="s">
+        <v>266</v>
+      </c>
+      <c r="E16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" t="s">
+        <v>267</v>
+      </c>
+      <c r="E17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" t="s">
+        <v>268</v>
+      </c>
+      <c r="E18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" t="s">
+        <v>249</v>
+      </c>
+      <c r="D19" t="s">
+        <v>269</v>
+      </c>
+      <c r="E19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20" t="s">
+        <v>270</v>
+      </c>
+      <c r="E20" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E21" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Divisions/F2.xlsx
+++ b/Divisions/F2.xlsx
@@ -13,13 +13,12 @@
     <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
     <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
     <sheet name="Shots Analysis" r:id="rId9" sheetId="7"/>
-    <sheet name="L6" r:id="rId10" sheetId="8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7183" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7058" uniqueCount="338">
   <si>
     <t>Team</t>
   </si>
@@ -1033,318 +1032,6 @@
   </si>
   <si>
     <t>29.75%</t>
-  </si>
-  <si>
-    <t>Form</t>
-  </si>
-  <si>
-    <t>Goals scored</t>
-  </si>
-  <si>
-    <t>Goals conceded</t>
-  </si>
-  <si>
-    <t>Total Goals</t>
-  </si>
-  <si>
-    <t>Team against</t>
-  </si>
-  <si>
-    <t>Ajaccio,W L D D D D</t>
-  </si>
-  <si>
-    <t>Amiens,W D D L D D</t>
-  </si>
-  <si>
-    <t>Auxerre,W L W D D W</t>
-  </si>
-  <si>
-    <t>Caen,L D L D L W</t>
-  </si>
-  <si>
-    <t>Chambly,W L D W W L</t>
-  </si>
-  <si>
-    <t>Chateauroux,L D L L L D</t>
-  </si>
-  <si>
-    <t>Clermont,D W W W W L</t>
-  </si>
-  <si>
-    <t>Dunkerque,D L D W L D</t>
-  </si>
-  <si>
-    <t>Grenoble,D W L L D W</t>
-  </si>
-  <si>
-    <t>Guingamp,W W D W W W</t>
-  </si>
-  <si>
-    <t>Le Havre,D D L L W W</t>
-  </si>
-  <si>
-    <t>Nancy,L W D L D D</t>
-  </si>
-  <si>
-    <t>Niort,L L D D D L</t>
-  </si>
-  <si>
-    <t>Paris FC,D L D W D W</t>
-  </si>
-  <si>
-    <t>Pau FC,D W D L D W</t>
-  </si>
-  <si>
-    <t>Rodez,D D D D D L</t>
-  </si>
-  <si>
-    <t>Sochaux,D L W L L L</t>
-  </si>
-  <si>
-    <t>Toulouse,W L W W D D</t>
-  </si>
-  <si>
-    <t>Troyes,W W W W W L</t>
-  </si>
-  <si>
-    <t>Valenciennes,L L D W L L</t>
-  </si>
-  <si>
-    <t>Ajaccio,3 0 2 0 1 0</t>
-  </si>
-  <si>
-    <t>Amiens,3 2 1 0 0 2</t>
-  </si>
-  <si>
-    <t>Auxerre,3 0 2 0 1 3</t>
-  </si>
-  <si>
-    <t>Caen,0 1 0 0 0 2</t>
-  </si>
-  <si>
-    <t>Chambly,2 0 1 4 1 0</t>
-  </si>
-  <si>
-    <t>Chateauroux,0 1 1 1 0 0</t>
-  </si>
-  <si>
-    <t>Clermont,1 1 2 2 3 1</t>
-  </si>
-  <si>
-    <t>Dunkerque,1 1 1 1 0 3</t>
-  </si>
-  <si>
-    <t>Grenoble,1 2 1 1 1 1</t>
-  </si>
-  <si>
-    <t>Guingamp,1 1 0 3 2 2</t>
-  </si>
-  <si>
-    <t>Le Havre,1 1 2 0 5 3</t>
-  </si>
-  <si>
-    <t>Nancy,2 2 1 1 1 2</t>
-  </si>
-  <si>
-    <t>Niort,0 0 1 1 0 0</t>
-  </si>
-  <si>
-    <t>Paris FC,2 0 0 3 1 3</t>
-  </si>
-  <si>
-    <t>Pau FC,1 3 0 0 2 4</t>
-  </si>
-  <si>
-    <t>Rodez,2 1 1 1 1 0</t>
-  </si>
-  <si>
-    <t>Sochaux,1 0 1 0 1 2</t>
-  </si>
-  <si>
-    <t>Toulouse,1 1 1 3 2 3</t>
-  </si>
-  <si>
-    <t>Troyes,1 3 3 2 2 2</t>
-  </si>
-  <si>
-    <t>Valenciennes,0 1 1 3 3 3</t>
-  </si>
-  <si>
-    <t>Ajaccio,0 2 2 0 1 0</t>
-  </si>
-  <si>
-    <t>Amiens,1 2 1 3 0 2</t>
-  </si>
-  <si>
-    <t>Auxerre,2 3 1 0 1 2</t>
-  </si>
-  <si>
-    <t>Caen,1 1 1 0 3 1</t>
-  </si>
-  <si>
-    <t>Chambly,0 1 1 2 0 3</t>
-  </si>
-  <si>
-    <t>Chateauroux,1 1 2 2 2 0</t>
-  </si>
-  <si>
-    <t>Clermont,1 0 1 1 1 2</t>
-  </si>
-  <si>
-    <t>Dunkerque,1 2 1 0 2 3</t>
-  </si>
-  <si>
-    <t>Grenoble,1 0 3 2 1 0</t>
-  </si>
-  <si>
-    <t>Guingamp,0 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>Le Havre,1 1 4 1 3 2</t>
-  </si>
-  <si>
-    <t>Nancy,3 0 1 3 1 2</t>
-  </si>
-  <si>
-    <t>Niort,3 3 1 1 0 2</t>
-  </si>
-  <si>
-    <t>Paris FC,2 1 0 1 1 0</t>
-  </si>
-  <si>
-    <t>Pau FC,1 0 0 1 2 3</t>
-  </si>
-  <si>
-    <t>Rodez,2 1 1 1 1 1</t>
-  </si>
-  <si>
-    <t>Sochaux,1 2 0 1 3 3</t>
-  </si>
-  <si>
-    <t>Toulouse,0 3 0 0 2 3</t>
-  </si>
-  <si>
-    <t>Troyes,0 0 1 1 0 3</t>
-  </si>
-  <si>
-    <t>Valenciennes,1 3 1 1 5 4</t>
-  </si>
-  <si>
-    <t>Ajaccio,3 2 4 0 2 0</t>
-  </si>
-  <si>
-    <t>Amiens,4 4 2 3 0 4</t>
-  </si>
-  <si>
-    <t>Auxerre,5 3 3 0 2 5</t>
-  </si>
-  <si>
-    <t>Caen,1 2 1 0 3 3</t>
-  </si>
-  <si>
-    <t>Chambly,2 1 2 6 1 3</t>
-  </si>
-  <si>
-    <t>Chateauroux,1 2 3 3 2 0</t>
-  </si>
-  <si>
-    <t>Clermont,2 1 3 3 4 3</t>
-  </si>
-  <si>
-    <t>Dunkerque,2 3 2 1 2 6</t>
-  </si>
-  <si>
-    <t>Grenoble,2 2 4 3 2 1</t>
-  </si>
-  <si>
-    <t>Le Havre,2 2 6 1 8 5</t>
-  </si>
-  <si>
-    <t>Nancy,5 2 2 4 2 4</t>
-  </si>
-  <si>
-    <t>Niort,3 3 2 2 0 2</t>
-  </si>
-  <si>
-    <t>Paris FC,4 1 0 4 2 3</t>
-  </si>
-  <si>
-    <t>Pau FC,2 3 0 1 4 7</t>
-  </si>
-  <si>
-    <t>Rodez,4 2 2 2 2 1</t>
-  </si>
-  <si>
-    <t>Sochaux,2 2 1 1 4 5</t>
-  </si>
-  <si>
-    <t>Toulouse,1 4 1 3 4 6</t>
-  </si>
-  <si>
-    <t>Troyes,1 3 4 3 2 5</t>
-  </si>
-  <si>
-    <t>Valenciennes,1 4 2 4 8 7</t>
-  </si>
-  <si>
-    <t>Ajaccio,Niort Nancy Amiens Pau FC Paris FC Chateauroux</t>
-  </si>
-  <si>
-    <t>Amiens,Valenciennes Ajaccio Dunkerque Guingamp Niort Nancy</t>
-  </si>
-  <si>
-    <t>Auxerre,Nancy Pau FC Dunkerque Caen Grenoble Sochaux</t>
-  </si>
-  <si>
-    <t>Caen,Troyes Dunkerque Sochaux Auxerre Toulouse Clermont</t>
-  </si>
-  <si>
-    <t>Chambly,Amiens Guingamp Nancy Le Havre Pau FC Paris FC</t>
-  </si>
-  <si>
-    <t>Chateauroux,Toulouse Rodez Clermont Troyes Guingamp Ajaccio</t>
-  </si>
-  <si>
-    <t>Clermont,Le Havre Paris FC Chateauroux Grenoble Sochaux Caen</t>
-  </si>
-  <si>
-    <t>Dunkerque,Caen Auxerre Amiens Sochaux Troyes Toulouse</t>
-  </si>
-  <si>
-    <t>Grenoble,Dunkerque Sochaux Troyes Clermont Auxerre Rodez</t>
-  </si>
-  <si>
-    <t>Guingamp,Valenciennes Chambly Paris FC Amiens Chateauroux Niort</t>
-  </si>
-  <si>
-    <t>Le Havre,Clermont Rodez Chambly Toulouse Valenciennes Troyes</t>
-  </si>
-  <si>
-    <t>Nancy,Auxerre Ajaccio Chambly Valenciennes Rodez Amiens</t>
-  </si>
-  <si>
-    <t>Niort,Ajaccio Troyes Valenciennes Rodez Amiens Guingamp</t>
-  </si>
-  <si>
-    <t>Paris FC,Rodez Clermont Guingamp Toulouse Ajaccio Chambly</t>
-  </si>
-  <si>
-    <t>Pau FC,Sochaux Auxerre Ajaccio Chambly Toulouse Valenciennes</t>
-  </si>
-  <si>
-    <t>Rodez,Paris FC Chateauroux Le Havre Niort Nancy Grenoble</t>
-  </si>
-  <si>
-    <t>Sochaux,Pau FC Grenoble Caen Dunkerque Clermont Auxerre</t>
-  </si>
-  <si>
-    <t>Toulouse,Chateauroux Paris FC Le Havre Caen Pau FC Dunkerque</t>
-  </si>
-  <si>
-    <t>Troyes,Caen Niort Grenoble Chateauroux Dunkerque Le Havre</t>
-  </si>
-  <si>
-    <t>Valenciennes,Guingamp Amiens Niort Nancy Le Havre Pau FC</t>
   </si>
 </sst>
 </file>
@@ -23995,435 +23682,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D3" t="s">
-        <v>384</v>
-      </c>
-      <c r="E3" t="s">
-        <v>404</v>
-      </c>
-      <c r="F3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C4" t="s">
-        <v>365</v>
-      </c>
-      <c r="D4" t="s">
-        <v>385</v>
-      </c>
-      <c r="E4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>346</v>
-      </c>
-      <c r="C5" t="s">
-        <v>366</v>
-      </c>
-      <c r="D5" t="s">
-        <v>386</v>
-      </c>
-      <c r="E5" t="s">
-        <v>406</v>
-      </c>
-      <c r="F5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>347</v>
-      </c>
-      <c r="C6" t="s">
-        <v>367</v>
-      </c>
-      <c r="D6" t="s">
-        <v>387</v>
-      </c>
-      <c r="E6" t="s">
-        <v>407</v>
-      </c>
-      <c r="F6" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>348</v>
-      </c>
-      <c r="C7" t="s">
-        <v>368</v>
-      </c>
-      <c r="D7" t="s">
-        <v>388</v>
-      </c>
-      <c r="E7" t="s">
-        <v>408</v>
-      </c>
-      <c r="F7" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>349</v>
-      </c>
-      <c r="C8" t="s">
-        <v>369</v>
-      </c>
-      <c r="D8" t="s">
-        <v>389</v>
-      </c>
-      <c r="E8" t="s">
-        <v>409</v>
-      </c>
-      <c r="F8" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>350</v>
-      </c>
-      <c r="C9" t="s">
-        <v>370</v>
-      </c>
-      <c r="D9" t="s">
-        <v>390</v>
-      </c>
-      <c r="E9" t="s">
-        <v>410</v>
-      </c>
-      <c r="F9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>351</v>
-      </c>
-      <c r="C10" t="s">
-        <v>371</v>
-      </c>
-      <c r="D10" t="s">
-        <v>391</v>
-      </c>
-      <c r="E10" t="s">
-        <v>411</v>
-      </c>
-      <c r="F10" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>352</v>
-      </c>
-      <c r="C11" t="s">
-        <v>372</v>
-      </c>
-      <c r="D11" t="s">
-        <v>392</v>
-      </c>
-      <c r="E11" t="s">
-        <v>372</v>
-      </c>
-      <c r="F11" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>353</v>
-      </c>
-      <c r="C12" t="s">
-        <v>373</v>
-      </c>
-      <c r="D12" t="s">
-        <v>393</v>
-      </c>
-      <c r="E12" t="s">
-        <v>412</v>
-      </c>
-      <c r="F12" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>354</v>
-      </c>
-      <c r="C13" t="s">
-        <v>374</v>
-      </c>
-      <c r="D13" t="s">
-        <v>394</v>
-      </c>
-      <c r="E13" t="s">
-        <v>413</v>
-      </c>
-      <c r="F13" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>355</v>
-      </c>
-      <c r="C14" t="s">
-        <v>375</v>
-      </c>
-      <c r="D14" t="s">
-        <v>395</v>
-      </c>
-      <c r="E14" t="s">
-        <v>414</v>
-      </c>
-      <c r="F14" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>356</v>
-      </c>
-      <c r="C15" t="s">
-        <v>376</v>
-      </c>
-      <c r="D15" t="s">
-        <v>396</v>
-      </c>
-      <c r="E15" t="s">
-        <v>415</v>
-      </c>
-      <c r="F15" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>357</v>
-      </c>
-      <c r="C16" t="s">
-        <v>377</v>
-      </c>
-      <c r="D16" t="s">
-        <v>397</v>
-      </c>
-      <c r="E16" t="s">
-        <v>416</v>
-      </c>
-      <c r="F16" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C17" t="s">
-        <v>378</v>
-      </c>
-      <c r="D17" t="s">
-        <v>398</v>
-      </c>
-      <c r="E17" t="s">
-        <v>417</v>
-      </c>
-      <c r="F17" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>359</v>
-      </c>
-      <c r="C18" t="s">
-        <v>379</v>
-      </c>
-      <c r="D18" t="s">
-        <v>399</v>
-      </c>
-      <c r="E18" t="s">
-        <v>418</v>
-      </c>
-      <c r="F18" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>360</v>
-      </c>
-      <c r="C19" t="s">
-        <v>380</v>
-      </c>
-      <c r="D19" t="s">
-        <v>400</v>
-      </c>
-      <c r="E19" t="s">
-        <v>419</v>
-      </c>
-      <c r="F19" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>361</v>
-      </c>
-      <c r="C20" t="s">
-        <v>381</v>
-      </c>
-      <c r="D20" t="s">
-        <v>401</v>
-      </c>
-      <c r="E20" t="s">
-        <v>420</v>
-      </c>
-      <c r="F20" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>362</v>
-      </c>
-      <c r="C21" t="s">
-        <v>382</v>
-      </c>
-      <c r="D21" t="s">
-        <v>402</v>
-      </c>
-      <c r="E21" t="s">
-        <v>421</v>
-      </c>
-      <c r="F21" t="s">
-        <v>441</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>